--- a/data/results/to_be/predictions/prediction_field4.xlsx
+++ b/data/results/to_be/predictions/prediction_field4.xlsx
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2154,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2686,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3370,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3522,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3560,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4700,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -6220,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -6410,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6600,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6676,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6866,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6942,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -7018,7 +7018,7 @@
         <v>3</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -7056,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -7094,7 +7094,7 @@
         <v>3</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -7132,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -7170,7 +7170,7 @@
         <v>3</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -7322,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7664,7 +7664,7 @@
         <v>2</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7816,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7892,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7930,7 +7930,7 @@
         <v>2</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="M169">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8424,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -11578,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="M256">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -11730,7 +11730,7 @@
         <v>2</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11844,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11920,7 +11920,7 @@
         <v>2</v>
       </c>
       <c r="M265">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11996,7 +11996,7 @@
         <v>2</v>
       </c>
       <c r="M267">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -14276,7 +14276,7 @@
         <v>3</v>
       </c>
       <c r="M327">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -14352,7 +14352,7 @@
         <v>3</v>
       </c>
       <c r="M329">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -16442,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="M384">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:13">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="M398">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -17088,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="M401">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -17316,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="M407">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -17430,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="M410">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -17848,7 +17848,7 @@
         <v>1</v>
       </c>
       <c r="M421">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:13">
@@ -17924,7 +17924,7 @@
         <v>3</v>
       </c>
       <c r="M423">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -18114,7 +18114,7 @@
         <v>2</v>
       </c>
       <c r="M428">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:13">
@@ -18304,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="M433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:13">
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="M434">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:13">
@@ -18418,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="M436">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:13">
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="M438">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:13">
@@ -18532,7 +18532,7 @@
         <v>1</v>
       </c>
       <c r="M439">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:13">
@@ -18950,7 +18950,7 @@
         <v>3</v>
       </c>
       <c r="M450">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -21420,7 +21420,7 @@
         <v>3</v>
       </c>
       <c r="M515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:13">
@@ -21534,7 +21534,7 @@
         <v>2</v>
       </c>
       <c r="M518">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:13">
@@ -21572,7 +21572,7 @@
         <v>2</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:13">
@@ -21990,7 +21990,7 @@
         <v>3</v>
       </c>
       <c r="M530">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:13">
@@ -22028,7 +22028,7 @@
         <v>3</v>
       </c>
       <c r="M531">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -22066,7 +22066,7 @@
         <v>3</v>
       </c>
       <c r="M532">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:13">
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
       <c r="M534">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:13">
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="M536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:13">
@@ -22256,7 +22256,7 @@
         <v>3</v>
       </c>
       <c r="M537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:13">
@@ -22294,7 +22294,7 @@
         <v>3</v>
       </c>
       <c r="M538">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:13">
@@ -22332,7 +22332,7 @@
         <v>3</v>
       </c>
       <c r="M539">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="540" spans="1:13">
@@ -22370,7 +22370,7 @@
         <v>3</v>
       </c>
       <c r="M540">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:13">
@@ -22598,7 +22598,7 @@
         <v>1</v>
       </c>
       <c r="M546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:13">
@@ -22826,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="M552">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:13">
@@ -23928,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="M581">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:13">
@@ -24156,7 +24156,7 @@
         <v>2</v>
       </c>
       <c r="M587">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:13">
@@ -24232,7 +24232,7 @@
         <v>3</v>
       </c>
       <c r="M589">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:13">
@@ -24270,7 +24270,7 @@
         <v>1</v>
       </c>
       <c r="M590">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:13">
@@ -24650,7 +24650,7 @@
         <v>3</v>
       </c>
       <c r="M600">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:13">
@@ -24688,7 +24688,7 @@
         <v>3</v>
       </c>
       <c r="M601">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:13">
@@ -24726,7 +24726,7 @@
         <v>3</v>
       </c>
       <c r="M602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:13">
@@ -24764,7 +24764,7 @@
         <v>3</v>
       </c>
       <c r="M603">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:13">
@@ -24802,7 +24802,7 @@
         <v>3</v>
       </c>
       <c r="M604">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:13">
@@ -24992,7 +24992,7 @@
         <v>1</v>
       </c>
       <c r="M609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:13">
@@ -25106,7 +25106,7 @@
         <v>1</v>
       </c>
       <c r="M612">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:13">
@@ -25182,7 +25182,7 @@
         <v>3</v>
       </c>
       <c r="M614">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:13">
@@ -25207,6 +25207,9 @@
       <c r="G615">
         <v>4</v>
       </c>
+      <c r="L615">
+        <v>4</v>
+      </c>
       <c r="M615">
         <v>4</v>
       </c>
@@ -25233,6 +25236,9 @@
       <c r="G616">
         <v>4</v>
       </c>
+      <c r="L616">
+        <v>4</v>
+      </c>
       <c r="M616">
         <v>4</v>
       </c>
@@ -25259,6 +25265,9 @@
       <c r="G617">
         <v>4</v>
       </c>
+      <c r="L617">
+        <v>4</v>
+      </c>
       <c r="M617">
         <v>4</v>
       </c>
@@ -25285,6 +25294,9 @@
       <c r="G618">
         <v>4</v>
       </c>
+      <c r="L618">
+        <v>4</v>
+      </c>
       <c r="M618">
         <v>4</v>
       </c>
@@ -25311,6 +25323,9 @@
       <c r="G619">
         <v>4</v>
       </c>
+      <c r="L619">
+        <v>4</v>
+      </c>
       <c r="M619">
         <v>4</v>
       </c>
@@ -25337,6 +25352,9 @@
       <c r="G620">
         <v>4</v>
       </c>
+      <c r="L620">
+        <v>4</v>
+      </c>
       <c r="M620">
         <v>4</v>
       </c>
@@ -25363,8 +25381,11 @@
       <c r="G621">
         <v>4</v>
       </c>
+      <c r="L621">
+        <v>4</v>
+      </c>
       <c r="M621">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="622" spans="1:13">
@@ -25389,6 +25410,9 @@
       <c r="G622">
         <v>4</v>
       </c>
+      <c r="L622">
+        <v>4</v>
+      </c>
       <c r="M622">
         <v>4</v>
       </c>
@@ -25415,8 +25439,11 @@
       <c r="G623">
         <v>4</v>
       </c>
+      <c r="L623">
+        <v>4</v>
+      </c>
       <c r="M623">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
